--- a/Статья/Tables.xlsx
+++ b/Статья/Tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Статья\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAAD01-B444-4988-AD58-49DFAB83CB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D83729-E076-4BA7-B55F-F9A17930F6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E9B65004-8967-46C9-AB65-63986D19EA5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{E9B65004-8967-46C9-AB65-63986D19EA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>100.0</t>
   </si>
@@ -454,6 +455,94 @@
       </rPr>
       <t>%mass</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>D расчет</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1e10 [m2/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>D источ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1e10 [m2/s]</t>
+    </r>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3 - 4.5</t>
+  </si>
+  <si>
+    <t>1e-4 - 1e-2</t>
   </si>
 </sst>
 </file>
@@ -635,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -750,11 +839,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -938,6 +1089,9 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -947,6 +1101,15 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -956,17 +1119,101 @@
     <xf numFmtId="49" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A9D16-6301-4129-96AB-EEE48F2A0FBF}">
-  <dimension ref="B2:P28"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G22"/>
+    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,10 +1540,10 @@
     <col min="2" max="2" width="3.77734375" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48" t="s">
         <v>86</v>
       </c>
@@ -1306,25 +1553,22 @@
       <c r="D2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="63" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="44" t="s">
         <v>66</v>
       </c>
+      <c r="I2" s="45"/>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -1336,22 +1580,19 @@
       <c r="E3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>38</v>
       </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="65"/>
       <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1361,20 +1602,19 @@
       <c r="E4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="65"/>
       <c r="C5" s="28" t="s">
         <v>59</v>
       </c>
@@ -1384,20 +1624,19 @@
       <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>42</v>
       </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
       <c r="C6" s="12" t="s">
         <v>56</v>
       </c>
@@ -1407,20 +1646,19 @@
       <c r="E6" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="66"/>
       <c r="C7" s="31" t="s">
         <v>51</v>
       </c>
@@ -1430,20 +1668,19 @@
       <c r="E7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>46</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="70" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1455,22 +1692,19 @@
       <c r="E8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="71"/>
       <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1480,20 +1714,19 @@
       <c r="E9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
       <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
@@ -1503,20 +1736,19 @@
       <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1526,20 +1758,19 @@
       <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="71"/>
       <c r="C12" s="19" t="s">
         <v>54</v>
       </c>
@@ -1549,20 +1780,19 @@
       <c r="E12" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>26</v>
       </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="71"/>
       <c r="C13" s="11" t="s">
         <v>55</v>
       </c>
@@ -1572,20 +1802,19 @@
       <c r="E13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
       <c r="C14" s="19" t="s">
         <v>56</v>
       </c>
@@ -1595,20 +1824,19 @@
       <c r="E14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="71"/>
       <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
@@ -1618,20 +1846,19 @@
       <c r="E15" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="68"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
       <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
@@ -1641,20 +1868,19 @@
       <c r="E16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="69" t="s">
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -1666,22 +1892,19 @@
       <c r="E17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>6</v>
       </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="68"/>
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
@@ -1691,20 +1914,19 @@
       <c r="E18" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="70"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="68"/>
       <c r="C19" s="37" t="s">
         <v>49</v>
       </c>
@@ -1714,20 +1936,19 @@
       <c r="E19" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>10</v>
       </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="68"/>
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
@@ -1737,20 +1958,19 @@
       <c r="E20" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="69"/>
       <c r="C21" s="40" t="s">
         <v>51</v>
       </c>
@@ -1760,19 +1980,18 @@
       <c r="E21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="41" t="s">
+      <c r="F21" s="41" t="s">
         <v>14</v>
       </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="62" t="s">
         <v>63</v>
       </c>
@@ -1785,31 +2004,28 @@
       <c r="E22" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J28" s="1"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1823,4 +2039,113 @@
     <ignoredError sqref="D3:D16" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE0579B-CCAF-41EA-994E-4575EA822D58}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="6" width="9.77734375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+    </row>
+    <row r="2" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>